--- a/lecture_2/20201002 POP file with ASIC data.xlsx
+++ b/lecture_2/20201002 POP file with ASIC data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6902" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6900" uniqueCount="751">
   <si>
     <t>Year</t>
   </si>
@@ -2278,12 +2278,6 @@
   </si>
   <si>
     <t>Case had 5 or more directions hearings (as opposed to 4 or fewer) (binary)</t>
-  </si>
-  <si>
-    <t>Ian Questions</t>
-  </si>
-  <si>
-    <t>what is zero duration?</t>
   </si>
 </sst>
 </file>
@@ -2672,10 +2666,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70:A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,16 +3420,6 @@
       <c r="A68" s="10"/>
       <c r="B68" s="10"/>
       <c r="C68" s="10"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>752</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
